--- a/last season cleaned data/lastseasoniplbatting.xlsx
+++ b/last season cleaned data/lastseasoniplbatting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned last season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/last season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02C499-A640-014B-9637-D54F7FEA511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD1D172-6017-D343-84F1-4F8281CD4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
   <si>
     <t>Player</t>
   </si>
@@ -67,18 +67,12 @@
     <t>V Kohli</t>
   </si>
   <si>
-    <t>113*</t>
-  </si>
-  <si>
     <t>BAT</t>
   </si>
   <si>
     <t>RD Gaikwad</t>
   </si>
   <si>
-    <t>108*</t>
-  </si>
-  <si>
     <t>TM Head</t>
   </si>
   <si>
@@ -94,60 +88,36 @@
     <t>H Klaasen</t>
   </si>
   <si>
-    <t>80*</t>
-  </si>
-  <si>
     <t>RR Pant</t>
   </si>
   <si>
-    <t>88*</t>
-  </si>
-  <si>
     <t>F du Plessis</t>
   </si>
   <si>
     <t>PD Salt</t>
   </si>
   <si>
-    <t>89*</t>
-  </si>
-  <si>
     <t>Shubman Gill</t>
   </si>
   <si>
     <t>RG Sharma</t>
   </si>
   <si>
-    <t>105*</t>
-  </si>
-  <si>
     <t>RM Patidar</t>
   </si>
   <si>
     <t>T Stubbs</t>
   </si>
   <si>
-    <t>71*</t>
-  </si>
-  <si>
     <t>JC Buttler</t>
   </si>
   <si>
-    <t>107*</t>
-  </si>
-  <si>
     <t>SS Iyer</t>
   </si>
   <si>
-    <t>58*</t>
-  </si>
-  <si>
     <t>SA Yadav</t>
   </si>
   <si>
-    <t>102*</t>
-  </si>
-  <si>
     <t>Prabhsimran Singh</t>
   </si>
   <si>
@@ -190,21 +160,12 @@
     <t>DC Jurel</t>
   </si>
   <si>
-    <t>56*</t>
-  </si>
-  <si>
     <t>JM Sharma</t>
   </si>
   <si>
-    <t>32*</t>
-  </si>
-  <si>
     <t>SD Hope</t>
   </si>
   <si>
-    <t>37*</t>
-  </si>
-  <si>
     <t>RK Singh</t>
   </si>
   <si>
@@ -227,9 +188,6 @@
   </si>
   <si>
     <t>SO Hetmyer</t>
-  </si>
-  <si>
-    <t>27*</t>
   </si>
   <si>
     <t>N Wadhera</t>
@@ -314,6 +272,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -663,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,8 +703,8 @@
       <c r="E2" s="2">
         <v>741</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
+      <c r="F2" s="2">
+        <v>113</v>
       </c>
       <c r="G2" s="2">
         <v>61.75</v>
@@ -772,12 +731,12 @@
         <v>38</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>14</v>
@@ -791,8 +750,8 @@
       <c r="E3" s="2">
         <v>583</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
+      <c r="F3" s="2">
+        <v>108</v>
       </c>
       <c r="G3" s="2">
         <v>53</v>
@@ -819,12 +778,12 @@
         <v>18</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -866,12 +825,12 @@
         <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
         <v>16</v>
@@ -913,12 +872,12 @@
         <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>14</v>
@@ -960,12 +919,12 @@
         <v>19</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>14</v>
@@ -1007,12 +966,12 @@
         <v>36</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>16</v>
@@ -1026,8 +985,8 @@
       <c r="E8" s="2">
         <v>479</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
+      <c r="F8" s="2">
+        <v>80</v>
       </c>
       <c r="G8" s="2">
         <v>39.909999999999997</v>
@@ -1054,12 +1013,12 @@
         <v>38</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>13</v>
@@ -1073,8 +1032,8 @@
       <c r="E9" s="2">
         <v>446</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
+      <c r="F9" s="2">
+        <v>88</v>
       </c>
       <c r="G9" s="2">
         <v>40.54</v>
@@ -1101,12 +1060,12 @@
         <v>25</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>15</v>
@@ -1148,12 +1107,12 @@
         <v>21</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>12</v>
@@ -1167,8 +1126,8 @@
       <c r="E11" s="2">
         <v>435</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>29</v>
+      <c r="F11" s="2">
+        <v>89</v>
       </c>
       <c r="G11" s="2">
         <v>39.54</v>
@@ -1195,12 +1154,12 @@
         <v>24</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>12</v>
@@ -1242,12 +1201,12 @@
         <v>15</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
         <v>14</v>
@@ -1261,8 +1220,8 @@
       <c r="E13" s="2">
         <v>417</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
+      <c r="F13" s="2">
+        <v>105</v>
       </c>
       <c r="G13" s="2">
         <v>32.07</v>
@@ -1289,12 +1248,12 @@
         <v>23</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>15</v>
@@ -1336,12 +1295,12 @@
         <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
@@ -1355,8 +1314,8 @@
       <c r="E15" s="2">
         <v>378</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>35</v>
+      <c r="F15" s="2">
+        <v>71</v>
       </c>
       <c r="G15" s="2">
         <v>54</v>
@@ -1383,12 +1342,12 @@
         <v>26</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>11</v>
@@ -1402,8 +1361,8 @@
       <c r="E16" s="2">
         <v>359</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>37</v>
+      <c r="F16" s="2">
+        <v>107</v>
       </c>
       <c r="G16" s="2">
         <v>39.880000000000003</v>
@@ -1430,12 +1389,12 @@
         <v>12</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
@@ -1449,8 +1408,8 @@
       <c r="E17" s="2">
         <v>351</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>39</v>
+      <c r="F17" s="2">
+        <v>58</v>
       </c>
       <c r="G17" s="2">
         <v>39</v>
@@ -1477,12 +1436,12 @@
         <v>14</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
         <v>11</v>
@@ -1496,8 +1455,8 @@
       <c r="E18" s="2">
         <v>345</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>41</v>
+      <c r="F18" s="2">
+        <v>102</v>
       </c>
       <c r="G18" s="2">
         <v>34.5</v>
@@ -1524,12 +1483,12 @@
         <v>18</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
         <v>14</v>
@@ -1571,12 +1530,12 @@
         <v>20</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
         <v>9</v>
@@ -1618,12 +1577,12 @@
         <v>28</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>14</v>
@@ -1665,12 +1624,12 @@
         <v>13</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>14</v>
@@ -1712,12 +1671,12 @@
         <v>16</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2">
         <v>11</v>
@@ -1731,8 +1690,8 @@
       <c r="E23" s="2">
         <v>298</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
+      <c r="F23" s="2">
+        <v>108</v>
       </c>
       <c r="G23" s="2">
         <v>29.8</v>
@@ -1759,12 +1718,12 @@
         <v>14</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>11</v>
@@ -1806,12 +1765,12 @@
         <v>9</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2">
         <v>13</v>
@@ -1853,12 +1812,12 @@
         <v>7</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2">
         <v>11</v>
@@ -1900,12 +1859,12 @@
         <v>4</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
         <v>8</v>
@@ -1947,12 +1906,12 @@
         <v>11</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2">
         <v>9</v>
@@ -1994,12 +1953,12 @@
         <v>8</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2">
         <v>8</v>
@@ -2041,12 +2000,12 @@
         <v>5</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2">
         <v>15</v>
@@ -2060,7 +2019,7 @@
       <c r="E30" s="2">
         <v>195</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="2">
         <v>56</v>
       </c>
       <c r="G30" s="2">
@@ -2088,12 +2047,12 @@
         <v>7</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2">
         <v>14</v>
@@ -2107,8 +2066,8 @@
       <c r="E31" s="2">
         <v>187</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>58</v>
+      <c r="F31" s="2">
+        <v>32</v>
       </c>
       <c r="G31" s="2">
         <v>17</v>
@@ -2135,12 +2094,12 @@
         <v>12</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
         <v>9</v>
@@ -2182,12 +2141,12 @@
         <v>12</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
         <v>15</v>
@@ -2229,12 +2188,12 @@
         <v>8</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
         <v>8</v>
@@ -2276,12 +2235,12 @@
         <v>10</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2">
         <v>6</v>
@@ -2323,12 +2282,12 @@
         <v>6</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2">
         <v>10</v>
@@ -2370,12 +2329,12 @@
         <v>8</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2">
         <v>14</v>
@@ -2389,8 +2348,8 @@
       <c r="E37" s="2">
         <v>161</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>60</v>
+      <c r="F37" s="2">
+        <v>37</v>
       </c>
       <c r="G37" s="2">
         <v>53.66</v>
@@ -2417,12 +2376,12 @@
         <v>13</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2">
         <v>12</v>
@@ -2436,8 +2395,8 @@
       <c r="E38" s="2">
         <v>113</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>69</v>
+      <c r="F38" s="2">
+        <v>27</v>
       </c>
       <c r="G38" s="2">
         <v>22.6</v>
@@ -2464,12 +2423,12 @@
         <v>7</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2">
         <v>6</v>
@@ -2511,12 +2470,12 @@
         <v>6</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>10</v>
@@ -2558,12 +2517,12 @@
         <v>6</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2">
         <v>5</v>
@@ -2605,12 +2564,12 @@
         <v>3</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
@@ -2652,12 +2611,12 @@
         <v>5</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
@@ -2699,12 +2658,12 @@
         <v>1</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
@@ -2746,12 +2705,12 @@
         <v>4</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -2793,12 +2752,12 @@
         <v>2</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2">
         <v>4</v>
@@ -2840,12 +2799,12 @@
         <v>1</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -2887,12 +2846,12 @@
         <v>2</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2">
         <v>7</v>
@@ -2934,12 +2893,12 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2">
         <v>4</v>
@@ -2981,12 +2940,12 @@
         <v>2</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -3028,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -3075,12 +3034,12 @@
         <v>2</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
@@ -3122,12 +3081,12 @@
         <v>1</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2">
         <v>2</v>
@@ -3169,12 +3128,12 @@
         <v>0</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -3216,12 +3175,12 @@
         <v>0</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -3263,12 +3222,12 @@
         <v>0</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
@@ -3310,12 +3269,12 @@
         <v>0</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2">
         <v>4</v>
@@ -3357,12 +3316,12 @@
         <v>0</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -3404,12 +3363,12 @@
         <v>0</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B59" s="2">
         <v>15</v>
@@ -3454,7 +3413,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B60" s="2">
         <v>13</v>
@@ -3499,7 +3458,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2">
         <v>5</v>
@@ -3544,7 +3503,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2">
         <v>9</v>
@@ -3589,7 +3548,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
@@ -3634,7 +3593,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2">
         <v>2</v>

--- a/last season cleaned data/lastseasoniplbatting.xlsx
+++ b/last season cleaned data/lastseasoniplbatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/last season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD1D172-6017-D343-84F1-4F8281CD4357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1537C369-C575-9948-8CA7-AA5FD440EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Player</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>BR Sharath</t>
+  </si>
+  <si>
+    <t>Zeros</t>
   </si>
 </sst>
 </file>
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -674,8 +677,8 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
-        <v>0</v>
+      <c r="L1" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
